--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belbi\PycharmProjects\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belbi\PycharmProject\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83C187-C33F-4046-8089-7EDAB8A7FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB87A6-0FFA-4109-8A66-6C5A57304704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC6E06A9-43C6-4F75-850D-9AB81CFF65DF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC6E06A9-43C6-4F75-850D-9AB81CFF65DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>BEDS</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>HOA</t>
+  </si>
+  <si>
+    <t>RATE</t>
   </si>
 </sst>
 </file>
@@ -411,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD7E3D4-DB85-4E44-8053-B927C3B36AEE}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>85027</v>
       </c>
@@ -470,8 +476,11 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>85027</v>
       </c>
@@ -496,8 +505,11 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>85085</v>
       </c>
@@ -521,6 +533,9 @@
       </c>
       <c r="H4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belbi\PycharmProject\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB87A6-0FFA-4109-8A66-6C5A57304704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65641A96-3ED5-490B-8410-0E8BDF93F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC6E06A9-43C6-4F75-850D-9AB81CFF65DF}"/>
   </bookViews>
@@ -86,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,12 +94,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD7E3D4-DB85-4E44-8053-B927C3B36AEE}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A2" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,90 +468,293 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>85027</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>85032</v>
+      </c>
+      <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1500</v>
       </c>
-      <c r="E2">
-        <v>7500</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1983</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>85015</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1960</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>85085</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1750</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>85029</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1750</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1970</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>85007</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1050</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1954</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>85034</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>800</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1926</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>85017</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1958</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>85050</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>85086</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6600</v>
+      </c>
+      <c r="F10" s="1">
         <v>2000</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>85027</v>
-      </c>
-      <c r="B3">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>85043</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1500</v>
-      </c>
-      <c r="E3">
-        <v>7500</v>
-      </c>
-      <c r="F3">
-        <v>2000</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>85085</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3000</v>
-      </c>
-      <c r="E4">
-        <v>5000</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>6.5</v>
+      <c r="D11" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6300</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
